--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_77_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_77_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.8806475022092415, 4.47086619137348]</t>
+          <t>[3.880225690996392, 4.471288002586329]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1630463742367323, 0.49500297148271555]</t>
+          <t>[0.16308786447073054, 0.4949614812487173]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0002386800520828292</v>
+        <v>0.0002379402930199337</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002386800520828292</v>
+        <v>0.0002379402930199337</v>
       </c>
       <c r="W2" t="n">
         <v>4.548508508508629</v>
